--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6036,7 +6037,6 @@
           <t>西部利得景程灵活配置混合C</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>80.81</t>
@@ -6052,6 +6052,4202 @@
       </c>
       <c r="H63" t="n">
         <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H110"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>171.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1597</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6428</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4703</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.48</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3163</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>58.85</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1716</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.41</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1397</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0254</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>70.21</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0080</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>72.92</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.7938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>320003</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>诺安先锋混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.7287</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方成份精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>39.85</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6259</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009474</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰致远优势混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>40.89</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5620</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>39.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.4953</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.74</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2736</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1299</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.61</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>77.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0495</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>166009</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>25.70</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7916</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>27.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7137</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001224</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中邮新思路灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>24.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6987</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>501095</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中银证券科技创新 3 年封闭运作灵活配置混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6985</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>16.49</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6645</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>23.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6075</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000020</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>景顺长城品质投资混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6013</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5315</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002620</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>中邮未来新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>69.73</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4985</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4663</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3775</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3717</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>9.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3669</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.63</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>13.81</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3494</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.55</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3326</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2769</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>19.55</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2659</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2510</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2364</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2327</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>64.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2166</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2054</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1664</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004236</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1620</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1576</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008657</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>85.91</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009598</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>景顺长城科技创新三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>32.18</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1341</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1333</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001980</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.11</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>001907</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0895</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.01</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0825</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009537</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>太平行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010771</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0632</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>519007</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>海富通强化回报混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>39.36</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>80.53</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>002261</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>002614</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001430</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮乐享收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>26.47</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0525</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>81.32</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010772</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘国证消费100指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>97.36</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>80.42</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0488</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>002615</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>中银颐利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>25.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0404</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.13</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011325</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>国泰江源优势精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>48.72</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.91</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001908</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>国投瑞银境煊灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002262</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中银宝利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.59</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001743</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>诺安优选回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.51</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>009538</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>太平行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0155</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010597</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>585001</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴中证新兴</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>69.92</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001883</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧新动力混合(LOF) -E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.30</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>25.60</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>000538</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>010598</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信景雯灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>36.98</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>59.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>002053</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>诺安优势行业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>38.25</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -10253,4 +10254,5988 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H157"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>138.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009863</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国创新趋势股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>74.66</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.9429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.2652</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002692</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国创新科技混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1444</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>34.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.9920</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8206</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>26.56</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>10.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6719</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4319</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>100060</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国高新技术产业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>42.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.2562</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.2179</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>97.77</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1153</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>47.84</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2.0428</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>74.98</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2.0095</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>23.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2.0023</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>71.86</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8899</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4730</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>16.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4499</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.21</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3096</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.30</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.09</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.2254</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>750001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>安信灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>42.39</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.19</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1996</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.0594</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.0591</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>11.62</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.0365</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>24.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.9357</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>31.27</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>80.73</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.8631</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>17.44</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.8511</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>501077</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国科创主题 3 年封闭运作灵活配置混 合型</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>24.84</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>96.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.8396</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>25.25</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.7954</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.51</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.7547</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>020010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰金牛创新混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.7285</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>360001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>光大保德信量化股票</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.6742</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>25.86</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.6491</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007345</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>富国科技创新灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>17.20</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>79.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.5521</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>16.37</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4972</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>501080</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>中金科创主题 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>17.99</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4102</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4011</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4004</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>67.62</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3996</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>78.64</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3644</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>007012</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>湘财长顺混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.3059</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2979</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>020026</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>国泰成长优选混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>9.07</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2766</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>53.89</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2598</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>008128</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>湘财长源股票A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2538</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>27.30</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2512</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005587</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信比较优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>70.15</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>98.10</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2402</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2322</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2321</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519606</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰金鑫股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.97</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2163</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>161611</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>融通内需驱动混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>63.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2140</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159807</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证科技50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2107</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2104</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001227</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>中邮信息产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.47</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.24</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>90.87</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1789</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>10.55</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1751</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1726</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>61.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1666</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1534</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>39.57</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1348</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>001287</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1291</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1194</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>007737</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>诺德中证研发创新100指数</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011097</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1143</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1129</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007013</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>湘财长顺混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>79.40</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1116</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1107</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1088</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>54.00</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1080</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>005310</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1078</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>11.71</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008129</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>湘财长源股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.82</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.1053</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.92</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011120</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国创新科技混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0848</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001318</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>78.97</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0806</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>10.82</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0801</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>76.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>860010</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>6.87</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>860029</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>97.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>77.56</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>515200</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>申万菱信中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0674</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0669</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>76.67</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>003704</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>光大保德信事件驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>22.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>673040</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0598</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000433</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信鑫发优选混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>55.64</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0597</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0559</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000368</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富沪深300安中指数</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>002036</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>安信优势增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>519965</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0460</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001254</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>96.25</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>002060</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>东方新策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>28.00</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>673043</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>西部利得行业主题优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0416</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003186</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>鹏华兴安定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>32.41</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>82.46</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>24.25</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>81.92</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0305</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>96.89</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0260</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010236</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发电子信息传媒产业精选股票C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>84.68</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>005844</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>东方人工智能主题混合</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011098</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>达诚宜创精选混合C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>61.26</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>159987</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>银华中证研发创新100ETF</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>96.93</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>33.92</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004858</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>长信量化多策略股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>26.74</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>002313</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>泰达宏利新起点灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>25.92</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>860028</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>光大阳光对冲策略6个月持有期灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>64.25</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>006535</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合A</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>006536</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>恒生前海恒锦裕利混合C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>27.12</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>010605</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>010606</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>创金合信鑫祥混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>28.33</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>44.54</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16238,4 +16239,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>156</v>
+      </c>
+      <c r="D2" t="n">
+        <v>81.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>109</v>
+      </c>
+      <c r="D3" t="n">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>62</v>
+      </c>
+      <c r="D4" t="n">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>83</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16247,7 +16248,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16258,17 +16259,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -16278,14 +16299,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>156</v>
-      </c>
-      <c r="D2" t="n">
-        <v>81.16</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>117.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.0236</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -16294,14 +16337,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>109</v>
-      </c>
-      <c r="D3" t="n">
-        <v>56.16</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>45.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.5227</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -16310,14 +16375,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>62</v>
-      </c>
-      <c r="D4" t="n">
-        <v>43.89</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>54.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.4348</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -16326,13 +16413,5585 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>169.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.4286</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.9673</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>32.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>9.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.9484</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>29.33</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.6192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4719</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>54.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.3640</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>28.51</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.20</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.3093</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.1594</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>62.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.9957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.9539</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>49.61</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.8554</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>57.99</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.8383</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.62</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.4660</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>24.29</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.4404</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007251</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发睿享稳健增利混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>35.77</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>39.39</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.3771</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>52.69</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.3067</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.04</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.3029</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.57</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>9.85</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.2647</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.1897</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.1525</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.30</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.1370</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011338</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>41.03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.0873</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>38.70</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.0294</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>58.75</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.9400</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9374</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>37.76</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.91</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9364</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011756</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>37.41</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9352</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>23.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8558</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>11.27</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.8193</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.8109</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.8089</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.8009</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.58</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.7116</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>340006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴全全球视野股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>26.66</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6878</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>58.79</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6430</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.4699</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.4676</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.4534</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.4344</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>000176</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实沪深300指数研究增强</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>25.20</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.4234</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.4025</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.90</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.3440</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008980</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.3429</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>79.62</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.3356</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.86</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008835</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.3005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2896</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2771</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>501062</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方瑞合三年定期开放混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>69.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2734</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2641</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>60.22</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2605</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.2388</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.2351</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005244</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.2033</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1848</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>515580</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证科技100ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>97.76</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1830</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005137</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1723</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008981</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中邮科技创新精选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>95.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.63</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1388</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>007448</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1386</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1139</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>97.14</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1106</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>80.68</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1011</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>001110</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>7.39</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1005</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0978</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0861</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0829</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011132</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>008836</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国量化对冲策略三个月持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.89</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011667</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001111</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>中欧瑾泉灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0612</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0575</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0565</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>400020</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东方成长回报平衡混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>42.37</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011339</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>兴全合远两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.50</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>21.16</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>006063</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>景顺长城MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005245</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国泰聚优价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>42.24</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>71.62</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>001162</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>85.48</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>005258</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>景顺长城量化平衡灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0378</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>010762</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>004190</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0360</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>7.97</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0351</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>009006</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0347</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011133</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏扬沪深300质量成长低波动指数证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>95.52</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>004191</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>招商沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>011757</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>博时产业优选灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>66.28</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>001059</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中金绝对收益策略定期开放混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>71.85</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0217</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>003579</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>011668</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>西藏东财中证高端装备制造指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>97.32</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>20.99</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>26.72</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>161816</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银华中证等权重90指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>84.07</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>001397</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>建信精工制造指数增强</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>010763</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>博时恒康一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>20.02</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>001638</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>前海开源优势蓝筹股票C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>93.52</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>85.29</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>6.44</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>005399</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合A</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>009669</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>长信量化价值驱动混合C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>003015</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>中金沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>39.75</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>147</v>
+      </c>
+      <c r="D2" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>156</v>
+      </c>
+      <c r="D3" t="n">
+        <v>81.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>109</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>62</v>
+      </c>
+      <c r="D5" t="n">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>83</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>81.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21890,7 +21891,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21901,17 +21902,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -21921,14 +21942,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>147</v>
-      </c>
-      <c r="D2" t="n">
-        <v>83.2</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>95.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.7133</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -21937,14 +21980,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>156</v>
-      </c>
-      <c r="D3" t="n">
-        <v>81.16</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>57.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7125</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -21953,14 +22018,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>109</v>
-      </c>
-      <c r="D4" t="n">
-        <v>56.16</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>57.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3152</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -21969,14 +22056,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>62</v>
-      </c>
-      <c r="D5" t="n">
-        <v>43.89</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>127.55</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1709</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -21985,13 +22094,3207 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.2952</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>56.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3920</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>21.90</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7651</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.17</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.5788</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.4795</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>54.67</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.4214</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>16.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3768</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3127</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>37.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2763</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>21.75</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2637</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.85</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2121</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1236</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0989</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.80</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.8213</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.31</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7712</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7639</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.00</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7280</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6690</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5587</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009447</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>财通资管科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4947</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.51</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4147</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2915</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2891</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.69</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2883</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2752</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2541</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.75</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2467</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2385</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>12.23</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2226</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.22</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2006</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>78.45</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1404</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1328</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1272</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>72.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1222</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1099</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1028</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0979</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>96.76</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0789</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7.67</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>004734</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>009005</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>创金合信鑫祺混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>11.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0589</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>23.06</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010495</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>65.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0468</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0363</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>011030</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0332</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0302</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013055</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>嘉实策略机遇混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>28.36</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>97.66</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8.74</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>97.81</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>85.53</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011031</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>达诚价值先锋灵活配置混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>80.83</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>97.54</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>010496</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信创新驱动股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>82.29</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>159897</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>建信中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>96.98</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>004735</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中欧瑾灵灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>32.29</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>92.18</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>7.62</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>51.22</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>85</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>147</v>
+      </c>
+      <c r="D3" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>156</v>
+      </c>
+      <c r="D4" t="n">
+        <v>81.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>109</v>
+      </c>
+      <c r="D5" t="n">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>83</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>81.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25177,7 +25178,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25188,17 +25189,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25208,14 +25229,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>85</v>
-      </c>
-      <c r="D2" t="n">
-        <v>52.05</v>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.8183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -25224,14 +25267,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>147</v>
-      </c>
-      <c r="D3" t="n">
-        <v>83.2</v>
+          <t>001511</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>兴全新视野灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>134.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.3114</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -25240,14 +25305,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>156</v>
-      </c>
-      <c r="D4" t="n">
-        <v>81.16</v>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.1267</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -25256,14 +25343,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>109</v>
-      </c>
-      <c r="D5" t="n">
-        <v>56.16</v>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.8219</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -25272,14 +25381,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>62</v>
-      </c>
-      <c r="D6" t="n">
-        <v>43.89</v>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.7942</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -25288,13 +25419,3907 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.0409</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>14.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>13.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9019</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>148.83</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8008</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>23.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7985</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>56.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6694</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>52.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5584</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>22.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.4534</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3152</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.2933</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>36.25</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2289</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.44</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2177</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>13.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.1741</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.0968</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.0240</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>31.46</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9469</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.8168</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.18</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7592</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6965</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.17</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6660</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6178</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6109</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>14.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5999</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>大成创新成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.33</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5359</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>41.50</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5146</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>34.15</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5088</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>10.38</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4806</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>38.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4794</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3763</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>24.66</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3674</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2916</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2855</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2666</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2591</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2549</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>11.04</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.45</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1980</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>工银瑞信中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.78</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1958</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>95.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1667</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1658</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>62.72</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>020009</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国泰金鹏蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1536</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1397</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>95.33</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1288</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>10.08</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1250</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003495</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1089</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>83.10</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1060</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0991</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001146</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0845</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安中证粤港澳大湾区发展主题ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>96.84</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0822</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0689</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0666</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.35</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0581</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>98.38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0548</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.92</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>001147</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中欧瑾源灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>32.86</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>9.06</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>安信中证深圳科技创新主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>98.75</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>大成投资严选六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>76.43</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.18</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>003496</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>鹏华弘尚灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>34.61</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>001453</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001419</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>82.91</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>53.52</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001454</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>鹏华弘鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>29.64</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>014954</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>78.92</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002314</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>泰达宏利新思路灵活配置混合B</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>33.19</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D2" t="n">
+        <v>56.07</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>85</v>
+      </c>
+      <c r="D3" t="n">
+        <v>52.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>147</v>
+      </c>
+      <c r="D4" t="n">
+        <v>83.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>156</v>
+      </c>
+      <c r="D5" t="n">
+        <v>81.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>109</v>
+      </c>
+      <c r="D6" t="n">
+        <v>56.16</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>62</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>83</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>81.59</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
+++ b/数据整理/stocks/A股/深证主板/000063-中兴通讯.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D2" t="n">
-        <v>56.07</v>
+        <v>39.48</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="D3" t="n">
-        <v>52.05</v>
+        <v>56.07</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>147</v>
+        <v>85</v>
       </c>
       <c r="D4" t="n">
-        <v>83.2</v>
+        <v>52.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="D5" t="n">
-        <v>81.16</v>
+        <v>83.2</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D6" t="n">
-        <v>56.16</v>
+        <v>81.16</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>62</v>
+        <v>109</v>
       </c>
       <c r="D7" t="n">
-        <v>43.89</v>
+        <v>56.16</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>62</v>
+      </c>
+      <c r="D8" t="n">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>83</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>81.59</v>
       </c>
     </row>
@@ -600,6 +617,4124 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H108"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515050</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>80.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5.0408</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000628</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43.11</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1384</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005680</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>33.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.9828</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010178</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.94</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.4164</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515880</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.19</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>12.89</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5713</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>财通资管均衡价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>19.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4438</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512960</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>50.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512950</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>47.12</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3194</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159994</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>银华中证5G通信主题ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1109</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>515000</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华宝中证科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.0609</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000362</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>27.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.0458</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>82.86</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.9224</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007490</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方信息创新混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8982</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010163</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>10.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8885</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>090004</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成精选增值混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.16</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>9.47</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.8873</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010413</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8210</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>41.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>79.30</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8147</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008276</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008271</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大成优势企业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7555</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008269</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>大成睿享混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.80</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6613</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010929</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159959</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华中证央企结构调整ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.74</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>97.91</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6000</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>090007</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>大成策略回报混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>61.86</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.5485</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000363</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰聚信价值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4967</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011066</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>大成高新技术产业股票C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>75.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4870</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008415</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰大制造两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4820</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>160910</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>大成创新成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4495</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>80.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3044</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>009069</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2450</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011834</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2393</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>161031</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2311</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>012767</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通资管价值发现混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2242</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001144</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>大成互联网思维混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2237</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>090013</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大成竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>61.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1988</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1957</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010064</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1807</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515750</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>富国中证科技50策略ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>77.64</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1719</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>516050</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银科技龙头ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>98.29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1672</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>000940</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.64</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1579</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1552</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>515860</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实新兴科技100ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.86</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.54</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1448</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007491</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>南方信息创新混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1362</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008270</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大成睿享混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>66.91</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1343</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159811</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>博时中证5G产业50ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1216</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005681</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通资管价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.75</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1146</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008327</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1091</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010414</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>财通资管宸瑞一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1047</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>008272</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>大成优势企业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>79.85</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160638</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>161025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>516510</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>易方达中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0821</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>161628</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0739</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>167506</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>78.70</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>159909</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>招商深证TMT50ETF</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010930</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>大成核心价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>78.19</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010203</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0501</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>515920</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>博时中证智能消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>98.81</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>159709</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>工银瑞信深证物联网50ETF</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>98.22</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>516260</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华夏中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010179</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>大成企业能力驱动混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>81.17</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512220</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>景顺长城中证科技传媒通信150ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>009840</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0409</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010164</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>财通资管价值精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>008871</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008326</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>西藏东财中证通信技术主题指数A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>516630</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华夏中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.46</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159896</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>南方中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.50</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>159739</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鹏华中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>97.89</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>160137</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方中证互联网指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014130</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>融通中证云计算与大数据主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.31</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>512970</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>平安粤港澳大湾区ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.80</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>011367</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>167503</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信中证一带一路主题指数</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009070</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>大成睿鑫股票C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516330</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>96.63</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>167507</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>安信深圳科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>7.35</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>012216</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>012478</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国匠心精选12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>65.96</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010065</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>圆信永丰兴研灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009841</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>西藏东财量化精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010202</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>天弘中证科技100指数增强A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>159890</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>招商中证云计算与大数据主题ETF</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011835</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>大成投资严选六月持有混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>66.75</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>159895</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>易方达中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>97.83</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>160636</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159701</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>招商中证物联网主题ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>159913</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>交银深证300价值ETF</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010307</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006906</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005035</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>82.82</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011368</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>创金合信群力一年定期开放混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>65.17</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010308</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>西藏东财信息产业精选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>84.91</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>001899</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>东海中证社会发展安全产业主题指数</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008872</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>大成睿裕六个月持有期股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>84.20</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>005036</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>银华信息科技量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>015676</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>鹏华中证移动互联网指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>012217</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>红塔红土盛利混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>52.08</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014173</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国中证移动互联网指数C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>015677</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>鹏华中证一带一路主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014172</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>富国中证工业4.0指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015690</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>003749</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>003750</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>创金合信鑫收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>52.03</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4607,7 +8742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7893,7 +12028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13535,7 +17670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19519,7 +23654,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23715,7 +27850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -26120,7 +30255,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
